--- a/papers.xlsx
+++ b/papers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nnobi\Desktop\FIUBA\Tesis\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0C0621B-C92C-4BC8-A667-3A6CC1A9358D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6737C6A-2FBB-4E98-A6B2-8A1269414072}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2589" yWindow="3009" windowWidth="16457" windowHeight="9565" xr2:uid="{D9AB7B09-F977-4CED-B019-8CC4CCCC5ABA}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11295" xr2:uid="{D9AB7B09-F977-4CED-B019-8CC4CCCC5ABA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Image Super-Resolution Using Deep Convolutional Networks / 1501.00092v3</t>
   </si>
@@ -102,6 +102,12 @@
   </si>
   <si>
     <t>A Review of Image Super-Resolution Approaches Based on Deep Learning and Applications in Remote Sensing</t>
+  </si>
+  <si>
+    <t>The Unreasonable Effectiveness of Deep Features as a Perceptual Metric</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/1801.03924?utm_source=chatgpt.com</t>
   </si>
 </sst>
 </file>
@@ -473,19 +479,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D6260CA-0A2F-492F-84B0-7083784942F2}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="76.23046875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.61328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="76.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="54" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -493,7 +499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -501,7 +507,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -509,7 +515,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -517,7 +523,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -525,7 +531,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -533,7 +539,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -541,7 +547,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -549,7 +555,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -557,7 +563,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -565,12 +571,20 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/papers.xlsx
+++ b/papers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nnobi\Desktop\FIUBA\Tesis\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6737C6A-2FBB-4E98-A6B2-8A1269414072}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48FD9B67-7F59-40B4-B330-FA4BA877508D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11295" xr2:uid="{D9AB7B09-F977-4CED-B019-8CC4CCCC5ABA}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Image Super-Resolution Using Deep Convolutional Networks / 1501.00092v3</t>
   </si>
@@ -108,6 +108,12 @@
   </si>
   <si>
     <t>https://arxiv.org/abs/1801.03924?utm_source=chatgpt.com</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/pdf/1808.10848</t>
+  </si>
+  <si>
+    <t>Fully Dense UNet for 2D Sparse Photoacoustic Tomography Artifact Removal</t>
   </si>
 </sst>
 </file>
@@ -479,15 +485,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D6260CA-0A2F-492F-84B0-7083784942F2}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="76.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="99.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="54" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -587,6 +593,14 @@
         <v>23</v>
       </c>
     </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/papers.xlsx
+++ b/papers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nnobi\Desktop\FIUBA\Tesis\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48FD9B67-7F59-40B4-B330-FA4BA877508D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B46764D1-E181-47A2-BB1A-BC8F5FB1C843}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11295" xr2:uid="{D9AB7B09-F977-4CED-B019-8CC4CCCC5ABA}"/>
+    <workbookView xWindow="343" yWindow="1697" windowWidth="21600" windowHeight="11297" xr2:uid="{D9AB7B09-F977-4CED-B019-8CC4CCCC5ABA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -120,10 +120,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -146,13 +154,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -488,16 +499,16 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="99.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="99.3828125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="54" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -505,7 +516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -513,7 +524,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -521,7 +532,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -529,7 +540,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -537,7 +548,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -545,7 +556,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -553,7 +564,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -561,7 +572,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -569,7 +580,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -577,7 +588,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -585,7 +596,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -593,16 +604,19 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>25</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="1" t="s">
         <v>24</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B13" r:id="rId1" xr:uid="{910954C0-4325-453F-9A24-12B44D14A76C}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/papers.xlsx
+++ b/papers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nnobi\Desktop\FIUBA\Tesis\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B46764D1-E181-47A2-BB1A-BC8F5FB1C843}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38F6F8C0-6FD2-4DC5-A015-7A6F8CDC9E73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="343" yWindow="1697" windowWidth="21600" windowHeight="11297" xr2:uid="{D9AB7B09-F977-4CED-B019-8CC4CCCC5ABA}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" xr2:uid="{D9AB7B09-F977-4CED-B019-8CC4CCCC5ABA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>Image Super-Resolution Using Deep Convolutional Networks / 1501.00092v3</t>
   </si>
@@ -114,6 +114,36 @@
   </si>
   <si>
     <t>Fully Dense UNet for 2D Sparse Photoacoustic Tomography Artifact Removal</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/pdf/2301.11154</t>
+  </si>
+  <si>
+    <t>Multitemporal and multispectral data fusion for super-resolution of Sentinel-2 images</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/pdf/2310.19288</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/pdf/2401.00736</t>
+  </si>
+  <si>
+    <t>EDiffSR: An Efficient Diffusion Probabilistic Model for Remote Sensing Image Super-Resolution</t>
+  </si>
+  <si>
+    <t>Diffusion Models, Image Super-Resolution And Everything: A Survey</t>
+  </si>
+  <si>
+    <t>https://www.mdpi.com/2306-5729/7/7/96</t>
+  </si>
+  <si>
+    <t>SEN2VENµS, a Dataset for the Training of Sentinel-2 Super-Resolution Algorithms</t>
+  </si>
+  <si>
+    <t>Advancing Image Super-resolution Techniques in Remote Sensing: A Comprehensive Survey</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/html/2505.23248v1#S1.F1</t>
   </si>
 </sst>
 </file>
@@ -496,19 +526,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D6260CA-0A2F-492F-84B0-7083784942F2}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="99.3828125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="99.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="54" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -516,7 +546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -524,7 +554,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -532,7 +562,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -540,7 +570,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -548,7 +578,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -556,7 +586,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -564,7 +594,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -572,7 +602,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -580,7 +610,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -588,7 +618,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -596,7 +626,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -604,19 +634,60 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>25</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B13" r:id="rId1" xr:uid="{910954C0-4325-453F-9A24-12B44D14A76C}"/>
+    <hyperlink ref="B17" r:id="rId2" xr:uid="{881E8527-6895-4B80-B0BA-43B71DC46FF2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/papers.xlsx
+++ b/papers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nnobi\Desktop\FIUBA\Tesis\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38F6F8C0-6FD2-4DC5-A015-7A6F8CDC9E73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADCF5C69-1B75-4796-90BB-4FD87F245EA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" xr2:uid="{D9AB7B09-F977-4CED-B019-8CC4CCCC5ABA}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>Image Super-Resolution Using Deep Convolutional Networks / 1501.00092v3</t>
   </si>
@@ -143,7 +143,25 @@
     <t>Advancing Image Super-resolution Techniques in Remote Sensing: A Comprehensive Survey</t>
   </si>
   <si>
-    <t>https://arxiv.org/html/2505.23248v1#S1.F1</t>
+    <t>Swin2SR: SwinV2 Transformer for Compressed Image Super-Resolution and Restoration</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/pdf/2108.10257</t>
+  </si>
+  <si>
+    <t>SwinIR: Image Restoration Using Swin Transformer</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/pdf/2209.11345</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/html/2505.23248v1</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/pdf/2103.14030</t>
+  </si>
+  <si>
+    <t>Swin Transformer: Hierarchical Vision Transformer using Shifted Windows</t>
   </si>
 </sst>
 </file>
@@ -188,9 +206,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -526,19 +547,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D6260CA-0A2F-492F-84B0-7083784942F2}">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="99.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="99.3828125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="54" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -546,7 +567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -554,7 +575,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -562,7 +583,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -570,7 +591,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -578,7 +599,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -586,7 +607,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -594,7 +615,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -602,7 +623,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -610,7 +631,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -618,7 +639,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -626,7 +647,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -634,7 +655,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -642,7 +663,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -650,7 +671,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>30</v>
       </c>
@@ -658,7 +679,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>31</v>
       </c>
@@ -666,7 +687,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -674,20 +695,46 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>34</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A19" s="2" t="s">
         <v>35</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B13" r:id="rId1" xr:uid="{910954C0-4325-453F-9A24-12B44D14A76C}"/>
     <hyperlink ref="B17" r:id="rId2" xr:uid="{881E8527-6895-4B80-B0BA-43B71DC46FF2}"/>
+    <hyperlink ref="B19" r:id="rId3" xr:uid="{198D62E9-83E8-4171-BDE0-252160630A55}"/>
+    <hyperlink ref="B18" r:id="rId4" xr:uid="{BF0B455E-A688-4BF1-BA8F-73B4DDDDBAD2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
--- a/papers.xlsx
+++ b/papers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nnobi\Desktop\FIUBA\Tesis\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADCF5C69-1B75-4796-90BB-4FD87F245EA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94DEE3AB-FAE3-40EE-B803-69CF1C9D4858}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" xr2:uid="{D9AB7B09-F977-4CED-B019-8CC4CCCC5ABA}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11100" xr2:uid="{D9AB7B09-F977-4CED-B019-8CC4CCCC5ABA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>Image Super-Resolution Using Deep Convolutional Networks / 1501.00092v3</t>
   </si>
@@ -162,6 +162,12 @@
   </si>
   <si>
     <t>Swin Transformer: Hierarchical Vision Transformer using Shifted Windows</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/pdf/2111.09883</t>
+  </si>
+  <si>
+    <t>Swin Transformer V2: Scaling Up Capacity and Resolution</t>
   </si>
 </sst>
 </file>
@@ -547,19 +553,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D6260CA-0A2F-492F-84B0-7083784942F2}">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="99.3828125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="99.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="54" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -567,7 +573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -575,7 +581,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -583,7 +589,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -591,7 +597,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -599,7 +605,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -607,7 +613,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -615,7 +621,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -623,7 +629,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -631,7 +637,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -639,7 +645,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -647,7 +653,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -655,7 +661,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -663,7 +669,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -671,7 +677,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>30</v>
       </c>
@@ -679,7 +685,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>31</v>
       </c>
@@ -687,7 +693,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -695,7 +701,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -703,7 +709,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>35</v>
       </c>
@@ -711,7 +717,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>37</v>
       </c>
@@ -719,12 +725,20 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>41</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="1" t="s">
         <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -733,8 +747,9 @@
     <hyperlink ref="B17" r:id="rId2" xr:uid="{881E8527-6895-4B80-B0BA-43B71DC46FF2}"/>
     <hyperlink ref="B19" r:id="rId3" xr:uid="{198D62E9-83E8-4171-BDE0-252160630A55}"/>
     <hyperlink ref="B18" r:id="rId4" xr:uid="{BF0B455E-A688-4BF1-BA8F-73B4DDDDBAD2}"/>
+    <hyperlink ref="B21" r:id="rId5" xr:uid="{D5FA80E5-EFE2-40F9-8C5A-9F14FB07092C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>